--- a/biology/Botanique/Domenico_Viviani/Domenico_Viviani.xlsx
+++ b/biology/Botanique/Domenico_Viviani/Domenico_Viviani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Domenico Viviani est un naturaliste italien, né le 29 juillet 1772 à Legnaro et mort le  15 février 1840 (à 67 ans)  à Gênes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Domenico Viviani est considéré comme le premier naturaliste ligure. Il se consacre principalement à la botanique après ses études de médecine. Il s’intéresse particulier aux Apennins et à sa flore.
 En 1803, il commence à enseigner la botanique à l’université de Gênes et dirige également le jardin botanique.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Annales Botanici, 1804,
 Memoria sopra una nuova specie di minerale scoperta in Liguria,
@@ -555,7 +571,7 @@
 Florae Italicae fragmenta, seu Plantae rariores, vel nondum cognitae, in variis Italiae regionibus detectae, descriptionibus, et figuris llustratae, 1808.
 Florae Libycae specimen: sive, plantarum enumeratio Cyrenaicam, Pentapolim, Magnae Syrteos Desertum Et Regionem Tripolitanam Incolentium..., 1824.
 Flore Corsicae specierum novarum vel minus cognitarum diagnosis quam in Florae Italicae fragmentis alternis Prodromum exhibet, 1825.
-I funghi d'Italia, 1834[1],[2].</t>
+I funghi d'Italia, 1834,.</t>
         </is>
       </c>
     </row>
